--- a/MVandebroek/TAKEN/ATSTAT-TASKS/TASK3/1.FILES/overallgrades_all_taak3.xlsx
+++ b/MVandebroek/TAKEN/ATSTAT-TASKS/TASK3/1.FILES/overallgrades_all_taak3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/leonard_maaya_kuleuven_be1/Documents/ATSTAT-TASKS/TASK3/1.FILES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_3A80FED18F79A8D366075C52F37BD272FA4B3E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11671003-180D-4E7D-A7E0-546B3EFC5465}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_3A80FED18F79A8D366075C52F37BD272FA4B3E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA7330D1-8D99-421A-BBD7-354A4980CFA1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4512,8 +4512,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L327" sqref="L327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4898,7 +4898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -23198,7 +23198,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1001</v>
       </c>
